--- a/config/fund.xlsx
+++ b/config/fund.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I542388\Documents\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I542388\Documents\private\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CE812-F9E9-4140-8482-233DC7C8054A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F57D520-9976-487F-8DA8-C9EFDAF2DA09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>161005</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>005827</t>
   </si>
@@ -39,28 +36,25 @@
     <t>兴全合润分级混合</t>
   </si>
   <si>
-    <t>富国天惠成长混合(LOF)A</t>
-  </si>
-  <si>
-    <t>中欧医疗健康混合C</t>
-  </si>
-  <si>
-    <t>融通新能源汽车主题精选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>005668</t>
-  </si>
-  <si>
-    <t>003096</t>
-  </si>
-  <si>
     <t>163406</t>
   </si>
   <si>
-    <t>519674</t>
-  </si>
-  <si>
-    <t>银河创新成长混合</t>
+    <t>景顺长城鼎益混合(LOF)</t>
+  </si>
+  <si>
+    <t>162605</t>
+  </si>
+  <si>
+    <t>摩根太平洋科技人民币对冲累计</t>
+  </si>
+  <si>
+    <t>968061</t>
+  </si>
+  <si>
+    <t>001679</t>
+  </si>
+  <si>
+    <t>前海开源中国稀有资产</t>
   </si>
 </sst>
 </file>
@@ -101,7 +95,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -379,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -392,18 +386,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -411,31 +405,23 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/config/fund.xlsx
+++ b/config/fund.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I542388\Documents\private\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F57D520-9976-487F-8DA8-C9EFDAF2DA09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC28124-D078-4BD7-94E2-DD3BADF94D50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,6 +108,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,7 +380,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,5 +431,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B5 B1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/config/fund.xlsx
+++ b/config/fund.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I542388\Documents\private\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC28124-D078-4BD7-94E2-DD3BADF94D50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D5FD61-6664-474A-98B7-7C45EB472EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,10 +108,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -388,44 +384,59 @@
     <col min="1" max="1" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1">
+        <v>94436</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>106500</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3">
+        <v>42632</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4">
+        <v>27214</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C5">
+        <v>38680</v>
       </c>
     </row>
   </sheetData>
